--- a/resultat_rapide_distance.xlsx
+++ b/resultat_rapide_distance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="39">
   <si>
     <t xml:space="preserve">BG (Buldarian)</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Best Project (open)</t>
   </si>
   <si>
+    <t xml:space="preserve">Meilleur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baseline</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">DE (German)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">L_D_O</t>
@@ -232,16 +238,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H128" activeCellId="0" sqref="H128"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -260,16 +269,19 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>62.52</v>
@@ -277,6 +289,10 @@
       <c r="D3" s="1" t="n">
         <v>65.56</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">MAX(C3:D3)</f>
+        <v>65.56</v>
+      </c>
       <c r="G3" s="1" t="n">
         <v>56.07</v>
       </c>
@@ -286,7 +302,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>63.86</v>
@@ -294,6 +310,10 @@
       <c r="D4" s="1" t="n">
         <v>66.85</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">MAX(C4:D4)</f>
+        <v>66.85</v>
+      </c>
       <c r="G4" s="1" t="n">
         <v>58.6</v>
       </c>
@@ -303,13 +323,17 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>81.67</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>78.97</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">MAX(C5:D5)</f>
+        <v>81.67</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>66.44</v>
@@ -322,12 +346,12 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1"/>
     </row>
@@ -342,15 +366,15 @@
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>45.27</v>
@@ -358,16 +382,23 @@
       <c r="D10" s="1" t="n">
         <v>45.53</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">MAX(C10:D10)</f>
+        <v>45.53</v>
+      </c>
       <c r="G10" s="1" t="n">
         <v>49.48</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>49.48</v>
       </c>
+      <c r="J10" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>49.97</v>
@@ -375,16 +406,23 @@
       <c r="D11" s="1" t="n">
         <v>50.76</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">MAX(C11:D11)</f>
+        <v>50.76</v>
+      </c>
       <c r="G11" s="1" t="n">
         <v>48.7</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>48.7</v>
       </c>
+      <c r="J11" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>72.81</v>
@@ -392,21 +430,28 @@
       <c r="D12" s="1" t="n">
         <v>70.07</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">MAX(C12:D12)</f>
+        <v>72.81</v>
+      </c>
       <c r="G12" s="1" t="n">
         <v>69.49</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>69.49</v>
       </c>
+      <c r="J12" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
     </row>
@@ -421,15 +466,15 @@
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>49.76</v>
@@ -437,16 +482,23 @@
       <c r="D17" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">MAX(C17:D17)</f>
+        <v>58</v>
+      </c>
       <c r="G17" s="1" t="n">
         <v>59.41</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>61.37</v>
       </c>
+      <c r="J17" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>53.1</v>
@@ -454,6 +506,10 @@
       <c r="D18" s="1" t="n">
         <v>66.79</v>
       </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">MAX(C18:D18)</f>
+        <v>66.79</v>
+      </c>
       <c r="G18" s="1" t="n">
         <v>59.73</v>
       </c>
@@ -463,7 +519,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>86.02</v>
@@ -471,21 +527,28 @@
       <c r="D19" s="1" t="n">
         <v>79.04</v>
       </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">MAX(C19:D19)</f>
+        <v>86.02</v>
+      </c>
       <c r="G19" s="1" t="n">
         <v>79.3</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>82.84</v>
       </c>
+      <c r="J19" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1"/>
     </row>
@@ -500,15 +563,15 @@
         <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>32.88</v>
@@ -516,6 +579,10 @@
       <c r="D24" s="1" t="n">
         <v>33.27</v>
       </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">MAX(C24:D24)</f>
+        <v>33.27</v>
+      </c>
       <c r="G24" s="1" t="n">
         <v>25.49</v>
       </c>
@@ -525,7 +592,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>34.37</v>
@@ -533,6 +600,10 @@
       <c r="D25" s="1" t="n">
         <v>34.36</v>
       </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">MAX(C25:D25)</f>
+        <v>34.37</v>
+      </c>
       <c r="G25" s="1" t="n">
         <v>24.91</v>
       </c>
@@ -542,7 +613,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>61.04</v>
@@ -550,26 +621,33 @@
       <c r="D26" s="1" t="n">
         <v>57.55</v>
       </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">MAX(C26:D26)</f>
+        <v>61.04</v>
+      </c>
       <c r="G26" s="1" t="n">
         <v>47.69</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>55.27</v>
       </c>
+      <c r="J26" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G27" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G28" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1"/>
     </row>
@@ -584,15 +662,15 @@
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>33.98</v>
@@ -600,6 +678,10 @@
       <c r="D31" s="1" t="n">
         <v>38.39</v>
       </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">MAX(C31:D31)</f>
+        <v>38.39</v>
+      </c>
       <c r="G31" s="1" t="n">
         <v>14.97</v>
       </c>
@@ -609,7 +691,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>39.75</v>
@@ -617,6 +699,10 @@
       <c r="D32" s="1" t="n">
         <v>44.69</v>
       </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">MAX(C32:D32)</f>
+        <v>44.69</v>
+      </c>
       <c r="G32" s="1" t="n">
         <v>23.49</v>
       </c>
@@ -626,7 +712,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>50.76</v>
@@ -634,6 +720,10 @@
       <c r="D33" s="1" t="n">
         <v>53.95</v>
       </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">MAX(C33:D33)</f>
+        <v>53.95</v>
+      </c>
       <c r="G33" s="1" t="n">
         <v>16.28</v>
       </c>
@@ -643,12 +733,12 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G34" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1"/>
     </row>
@@ -663,15 +753,15 @@
         <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>75.8</v>
@@ -679,16 +769,23 @@
       <c r="D38" s="1" t="n">
         <v>77.04</v>
       </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">MAX(C38:D38)</f>
+        <v>77.04</v>
+      </c>
       <c r="G38" s="1" t="n">
         <v>74.59</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>78.33</v>
       </c>
+      <c r="J38" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>76.83</v>
@@ -696,16 +793,23 @@
       <c r="D39" s="1" t="n">
         <v>80.21</v>
       </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">MAX(C39:D39)</f>
+        <v>80.21</v>
+      </c>
       <c r="G39" s="1" t="n">
         <v>75.13</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>78.44</v>
       </c>
+      <c r="J39" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>85.28</v>
@@ -713,21 +817,28 @@
       <c r="D40" s="1" t="n">
         <v>87.24</v>
       </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">MAX(C40:D40)</f>
+        <v>87.24</v>
+      </c>
       <c r="G40" s="1" t="n">
         <v>81.02</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>85.48</v>
       </c>
+      <c r="J40" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G41" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1"/>
     </row>
@@ -742,15 +853,15 @@
         <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>77.83</v>
@@ -758,6 +869,10 @@
       <c r="D45" s="1" t="n">
         <v>78.35</v>
       </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">MAX(C45:D45)</f>
+        <v>78.35</v>
+      </c>
       <c r="G45" s="1" t="n">
         <v>57.21</v>
       </c>
@@ -767,7 +882,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>81.28</v>
@@ -775,6 +890,10 @@
       <c r="D46" s="1" t="n">
         <v>82.95</v>
       </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">MAX(C46:D46)</f>
+        <v>82.95</v>
+      </c>
       <c r="G46" s="1" t="n">
         <v>62.59</v>
       </c>
@@ -784,7 +903,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>89.3</v>
@@ -792,6 +911,10 @@
       <c r="D47" s="1" t="n">
         <v>87.97</v>
       </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">MAX(C47:D47)</f>
+        <v>89.3</v>
+      </c>
       <c r="G47" s="1" t="n">
         <v>72.73</v>
       </c>
@@ -801,12 +924,12 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G48" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B50" s="1"/>
     </row>
@@ -821,15 +944,15 @@
         <v>3</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>56.19</v>
@@ -837,16 +960,23 @@
       <c r="D52" s="1" t="n">
         <v>60.88</v>
       </c>
+      <c r="E52" s="0" t="n">
+        <f aca="false">MAX(C52:D52)</f>
+        <v>60.88</v>
+      </c>
       <c r="G52" s="1" t="n">
         <v>63.57</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>64.45</v>
       </c>
+      <c r="J52" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>61.9</v>
@@ -854,16 +984,23 @@
       <c r="D53" s="1" t="n">
         <v>65.57</v>
       </c>
+      <c r="E53" s="0" t="n">
+        <f aca="false">MAX(C53:D53)</f>
+        <v>65.57</v>
+      </c>
       <c r="G53" s="1" t="n">
         <v>66.14</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>66.7</v>
       </c>
+      <c r="J53" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>81.72</v>
@@ -871,21 +1008,28 @@
       <c r="D54" s="1" t="n">
         <v>76.57</v>
       </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">MAX(C54:D54)</f>
+        <v>81.72</v>
+      </c>
       <c r="G54" s="1" t="n">
         <v>77.52</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>78.82</v>
       </c>
+      <c r="J54" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G55" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1"/>
     </row>
@@ -900,15 +1044,15 @@
         <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>23.28</v>
@@ -916,16 +1060,23 @@
       <c r="D59" s="1" t="n">
         <v>38.91</v>
       </c>
+      <c r="E59" s="0" t="n">
+        <f aca="false">MAX(C59:D59)</f>
+        <v>38.91</v>
+      </c>
       <c r="G59" s="1" t="n">
         <v>42.52</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>44.1</v>
       </c>
+      <c r="J59" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>29.13</v>
@@ -933,16 +1084,23 @@
       <c r="D60" s="1" t="n">
         <v>44.02</v>
       </c>
+      <c r="E60" s="0" t="n">
+        <f aca="false">MAX(C60:D60)</f>
+        <v>44.02</v>
+      </c>
       <c r="G60" s="1" t="n">
         <v>41.21</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>41.68</v>
       </c>
+      <c r="J60" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>79.43</v>
@@ -950,21 +1108,28 @@
       <c r="D61" s="1" t="n">
         <v>70.88</v>
       </c>
+      <c r="E61" s="0" t="n">
+        <f aca="false">MAX(C61:D61)</f>
+        <v>79.43</v>
+      </c>
       <c r="G61" s="1" t="n">
         <v>80</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>86.62</v>
       </c>
+      <c r="J61" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B64" s="1"/>
     </row>
@@ -979,15 +1144,15 @@
         <v>3</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>77.98</v>
@@ -995,6 +1160,10 @@
       <c r="D66" s="1" t="n">
         <v>72.71</v>
       </c>
+      <c r="E66" s="0" t="n">
+        <f aca="false">MAX(C66:D66)</f>
+        <v>77.98</v>
+      </c>
       <c r="G66" s="1" t="n">
         <v>67.41</v>
       </c>
@@ -1004,7 +1173,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>73.35</v>
@@ -1012,6 +1181,10 @@
       <c r="D67" s="1" t="n">
         <v>75.62</v>
       </c>
+      <c r="E67" s="0" t="n">
+        <f aca="false">MAX(C67:D67)</f>
+        <v>75.62</v>
+      </c>
       <c r="G67" s="1" t="n">
         <v>66.13</v>
       </c>
@@ -1021,7 +1194,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>90.61</v>
@@ -1029,26 +1202,33 @@
       <c r="D68" s="1" t="n">
         <v>90.74</v>
       </c>
+      <c r="E68" s="0" t="n">
+        <f aca="false">MAX(C68:D68)</f>
+        <v>90.74</v>
+      </c>
       <c r="G68" s="1" t="n">
         <v>89.69</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>90.62</v>
       </c>
+      <c r="J68" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G69" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G70" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B71" s="1"/>
     </row>
@@ -1063,15 +1243,15 @@
         <v>3</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>55.3</v>
@@ -1079,6 +1259,10 @@
       <c r="D73" s="1" t="n">
         <v>47.84</v>
       </c>
+      <c r="E73" s="0" t="n">
+        <f aca="false">MAX(C73:D73)</f>
+        <v>55.3</v>
+      </c>
       <c r="G73" s="1" t="n">
         <v>36.83</v>
       </c>
@@ -1088,7 +1272,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>61.52</v>
@@ -1096,6 +1280,10 @@
       <c r="D74" s="1" t="n">
         <v>58.19</v>
       </c>
+      <c r="E74" s="0" t="n">
+        <f aca="false">MAX(C74:D74)</f>
+        <v>61.52</v>
+      </c>
       <c r="G74" s="1" t="n">
         <v>39.96</v>
       </c>
@@ -1105,7 +1293,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>81.93</v>
@@ -1113,6 +1301,10 @@
       <c r="D75" s="1" t="n">
         <v>71.93</v>
       </c>
+      <c r="E75" s="0" t="n">
+        <f aca="false">MAX(C75:D75)</f>
+        <v>81.93</v>
+      </c>
       <c r="G75" s="1" t="n">
         <v>44.04</v>
       </c>
@@ -1122,12 +1314,12 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G76" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B78" s="1"/>
     </row>
@@ -1142,15 +1334,15 @@
         <v>3</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>90.31</v>
@@ -1158,16 +1350,23 @@
       <c r="D80" s="1" t="n">
         <v>85.83</v>
       </c>
+      <c r="E80" s="0" t="n">
+        <f aca="false">MAX(C80:D80)</f>
+        <v>90.31</v>
+      </c>
       <c r="G80" s="1" t="n">
         <v>92.94</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>93.52</v>
       </c>
+      <c r="J80" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>88</v>
@@ -1175,16 +1374,23 @@
       <c r="D81" s="1" t="n">
         <v>86.73</v>
       </c>
+      <c r="E81" s="0" t="n">
+        <f aca="false">MAX(C81:D81)</f>
+        <v>88</v>
+      </c>
       <c r="G81" s="1" t="n">
         <v>90.63</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>91.46</v>
       </c>
+      <c r="J81" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>97.23</v>
@@ -1192,21 +1398,28 @@
       <c r="D82" s="1" t="n">
         <v>93.18</v>
       </c>
+      <c r="E82" s="0" t="n">
+        <f aca="false">MAX(C82:D82)</f>
+        <v>97.23</v>
+      </c>
       <c r="G82" s="1" t="n">
         <v>97.62</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>98.3</v>
       </c>
+      <c r="J82" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G83" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B85" s="1"/>
     </row>
@@ -1221,15 +1434,15 @@
         <v>3</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>49.2</v>
@@ -1237,16 +1450,23 @@
       <c r="D87" s="1" t="n">
         <v>45.4</v>
       </c>
+      <c r="E87" s="0" t="n">
+        <f aca="false">MAX(C87:D87)</f>
+        <v>49.2</v>
+      </c>
       <c r="G87" s="1" t="n">
         <v>51.31</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>55.7</v>
       </c>
+      <c r="J87" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>53.78</v>
@@ -1254,16 +1474,23 @@
       <c r="D88" s="1" t="n">
         <v>55.13</v>
       </c>
+      <c r="E88" s="0" t="n">
+        <f aca="false">MAX(C88:D88)</f>
+        <v>55.13</v>
+      </c>
       <c r="G88" s="1" t="n">
         <v>53.19</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>57.17</v>
       </c>
+      <c r="J88" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>72.21</v>
@@ -1271,21 +1498,28 @@
       <c r="D89" s="1" t="n">
         <v>71.03</v>
       </c>
+      <c r="E89" s="0" t="n">
+        <f aca="false">MAX(C89:D89)</f>
+        <v>72.21</v>
+      </c>
       <c r="G89" s="1" t="n">
         <v>64.39</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>71.45</v>
       </c>
+      <c r="J89" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G90" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B92" s="1"/>
     </row>
@@ -1300,15 +1534,15 @@
         <v>3</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>32.17</v>
@@ -1316,16 +1550,23 @@
       <c r="D94" s="1" t="n">
         <v>22.86</v>
       </c>
+      <c r="E94" s="0" t="n">
+        <f aca="false">MAX(C94:D94)</f>
+        <v>32.17</v>
+      </c>
       <c r="G94" s="1" t="n">
         <v>50.91</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>48.78</v>
       </c>
+      <c r="J94" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>34.1</v>
@@ -1333,16 +1574,23 @@
       <c r="D95" s="1" t="n">
         <v>28.13</v>
       </c>
+      <c r="E95" s="0" t="n">
+        <f aca="false">MAX(C95:D95)</f>
+        <v>34.1</v>
+      </c>
       <c r="G95" s="1" t="n">
         <v>48.79</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>46.05</v>
       </c>
+      <c r="J95" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>69.21</v>
@@ -1350,26 +1598,33 @@
       <c r="D96" s="1" t="n">
         <v>47.65</v>
       </c>
+      <c r="E96" s="0" t="n">
+        <f aca="false">MAX(C96:D96)</f>
+        <v>69.21</v>
+      </c>
       <c r="G96" s="1" t="n">
         <v>74.05</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>75.4</v>
       </c>
+      <c r="J96" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G97" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G98" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B99" s="1"/>
     </row>
@@ -1384,15 +1639,15 @@
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>66.96</v>
@@ -1400,16 +1655,23 @@
       <c r="D101" s="1" t="n">
         <v>63.6</v>
       </c>
+      <c r="E101" s="0" t="n">
+        <f aca="false">MAX(C101:D101)</f>
+        <v>66.96</v>
+      </c>
       <c r="G101" s="1" t="n">
         <v>65.1</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>72.16</v>
       </c>
+      <c r="J101" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>68.59</v>
@@ -1417,16 +1679,23 @@
       <c r="D102" s="1" t="n">
         <v>66.42</v>
       </c>
+      <c r="E102" s="0" t="n">
+        <f aca="false">MAX(C102:D102)</f>
+        <v>68.59</v>
+      </c>
       <c r="G102" s="1" t="n">
         <v>67.71</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>73.19</v>
       </c>
+      <c r="J102" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>85.88</v>
@@ -1434,21 +1703,28 @@
       <c r="D103" s="1" t="n">
         <v>81.53</v>
       </c>
+      <c r="E103" s="0" t="n">
+        <f aca="false">MAX(C103:D103)</f>
+        <v>85.88</v>
+      </c>
       <c r="G103" s="1" t="n">
         <v>75.3</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>84.91</v>
       </c>
+      <c r="J103" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G104" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B106" s="1"/>
     </row>
@@ -1463,15 +1739,15 @@
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>62.07</v>
@@ -1479,16 +1755,23 @@
       <c r="D108" s="1" t="n">
         <v>68.17</v>
       </c>
+      <c r="E108" s="0" t="n">
+        <f aca="false">MAX(C108:D108)</f>
+        <v>68.17</v>
+      </c>
       <c r="G108" s="1" t="n">
         <v>64.94</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>66.81</v>
       </c>
+      <c r="J108" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>66.6</v>
@@ -1496,6 +1779,10 @@
       <c r="D109" s="1" t="n">
         <v>73.51</v>
       </c>
+      <c r="E109" s="0" t="n">
+        <f aca="false">MAX(C109:D109)</f>
+        <v>73.51</v>
+      </c>
       <c r="G109" s="1" t="n">
         <v>66.51</v>
       </c>
@@ -1505,7 +1792,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>79.2</v>
@@ -1513,6 +1800,10 @@
       <c r="D110" s="1" t="n">
         <v>86.52</v>
       </c>
+      <c r="E110" s="0" t="n">
+        <f aca="false">MAX(C110:D110)</f>
+        <v>86.52</v>
+      </c>
       <c r="G110" s="1" t="n">
         <v>77.44</v>
       </c>
@@ -1522,12 +1813,12 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G111" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B113" s="1"/>
     </row>
@@ -1542,15 +1833,15 @@
         <v>3</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>85.28</v>
@@ -1558,6 +1849,10 @@
       <c r="D115" s="1" t="n">
         <v>87.18</v>
       </c>
+      <c r="E115" s="0" t="n">
+        <f aca="false">MAX(C115:D115)</f>
+        <v>87.18</v>
+      </c>
       <c r="G115" s="1" t="n">
         <v>77.48</v>
       </c>
@@ -1567,7 +1862,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>85.69</v>
@@ -1575,6 +1870,10 @@
       <c r="D116" s="1" t="n">
         <v>88.69</v>
       </c>
+      <c r="E116" s="0" t="n">
+        <f aca="false">MAX(C116:D116)</f>
+        <v>88.69</v>
+      </c>
       <c r="G116" s="1" t="n">
         <v>80.21</v>
       </c>
@@ -1584,7 +1883,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>90.08</v>
@@ -1592,6 +1891,10 @@
       <c r="D117" s="1" t="n">
         <v>92.29</v>
       </c>
+      <c r="E117" s="0" t="n">
+        <f aca="false">MAX(C117:D117)</f>
+        <v>92.29</v>
+      </c>
       <c r="G117" s="1" t="n">
         <v>79.35</v>
       </c>
@@ -1601,12 +1904,12 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G118" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B120" s="1"/>
     </row>
@@ -1621,15 +1924,15 @@
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>64.29</v>
@@ -1637,6 +1940,10 @@
       <c r="D122" s="1" t="n">
         <v>52.27</v>
       </c>
+      <c r="E122" s="0" t="n">
+        <f aca="false">MAX(C122:D122)</f>
+        <v>64.29</v>
+      </c>
       <c r="G122" s="1" t="n">
         <v>36.98</v>
       </c>
@@ -1646,7 +1953,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>66.01</v>
@@ -1654,6 +1961,10 @@
       <c r="D123" s="1" t="n">
         <v>61.55</v>
       </c>
+      <c r="E123" s="0" t="n">
+        <f aca="false">MAX(C123:D123)</f>
+        <v>66.01</v>
+      </c>
       <c r="G123" s="1" t="n">
         <v>39.84</v>
       </c>
@@ -1663,7 +1974,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>80.73</v>
@@ -1671,6 +1982,10 @@
       <c r="D124" s="1" t="n">
         <v>71.41</v>
       </c>
+      <c r="E124" s="0" t="n">
+        <f aca="false">MAX(C124:D124)</f>
+        <v>80.73</v>
+      </c>
       <c r="G124" s="1" t="n">
         <v>41.68</v>
       </c>
@@ -1680,12 +1995,12 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G125" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B127" s="1"/>
     </row>
@@ -1700,15 +2015,15 @@
         <v>3</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>45.24</v>
@@ -1716,6 +2031,10 @@
       <c r="D129" s="1" t="n">
         <v>58.66</v>
       </c>
+      <c r="E129" s="0" t="n">
+        <f aca="false">MAX(C129:D129)</f>
+        <v>58.66</v>
+      </c>
       <c r="G129" s="1" t="n">
         <v>35.76</v>
       </c>
@@ -1725,7 +2044,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>47.97</v>
@@ -1733,6 +2052,10 @@
       <c r="D130" s="1" t="n">
         <v>61.63</v>
       </c>
+      <c r="E130" s="0" t="n">
+        <f aca="false">MAX(C130:D130)</f>
+        <v>61.63</v>
+      </c>
       <c r="G130" s="1" t="n">
         <v>37.52</v>
       </c>
@@ -1742,7 +2065,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>83.95</v>
@@ -1750,6 +2073,10 @@
       <c r="D131" s="1" t="n">
         <v>79.65</v>
       </c>
+      <c r="E131" s="0" t="n">
+        <f aca="false">MAX(C131:D131)</f>
+        <v>83.95</v>
+      </c>
       <c r="G131" s="1" t="n">
         <v>52.26</v>
       </c>
@@ -1759,7 +2086,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G132" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
